--- a/Results/documentation of the RAs (in corpus for all subject).xlsx
+++ b/Results/documentation of the RAs (in corpus for all subject).xlsx
@@ -4921,8 +4921,10 @@
           <t>王正祎</t>
         </is>
       </c>
-      <c r="P53" t="n">
-        <v>440</v>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -5004,8 +5006,10 @@
           <t>王正祎</t>
         </is>
       </c>
-      <c r="P54" t="n">
-        <v>440</v>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -5088,8 +5092,10 @@
           <t>王正祎</t>
         </is>
       </c>
-      <c r="P55" t="n">
-        <v>440</v>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5171,8 +5177,10 @@
           <t>刘志豪Liu Zhihao</t>
         </is>
       </c>
-      <c r="P56" t="n">
-        <v>440</v>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5254,8 +5262,10 @@
           <t>刘志豪Liu Zhihao</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>440</v>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5337,8 +5347,10 @@
           <t>刘志豪Liu Zhihao</t>
         </is>
       </c>
-      <c r="P58" t="n">
-        <v>440</v>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5420,8 +5432,10 @@
           <t>蔡翌旸</t>
         </is>
       </c>
-      <c r="P59" t="n">
-        <v>440</v>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5503,8 +5517,10 @@
           <t>蔡翌旸</t>
         </is>
       </c>
-      <c r="P60" t="n">
-        <v>440</v>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5586,8 +5602,10 @@
           <t>蔡翌旸</t>
         </is>
       </c>
-      <c r="P61" t="n">
-        <v>440</v>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5669,8 +5687,10 @@
           <t>运洪禄</t>
         </is>
       </c>
-      <c r="P62" t="n">
-        <v>440</v>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5752,8 +5772,10 @@
           <t>运洪禄</t>
         </is>
       </c>
-      <c r="P63" t="n">
-        <v>440</v>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5835,8 +5857,10 @@
           <t>运洪禄</t>
         </is>
       </c>
-      <c r="P64" t="n">
-        <v>440</v>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5918,8 +5942,10 @@
           <t>张旭Zhang Xu</t>
         </is>
       </c>
-      <c r="P65" t="n">
-        <v>440</v>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6001,8 +6027,10 @@
           <t>张旭Zhang Xu</t>
         </is>
       </c>
-      <c r="P66" t="n">
-        <v>440</v>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6084,8 +6112,10 @@
           <t>张旭Zhang Xu</t>
         </is>
       </c>
-      <c r="P67" t="n">
-        <v>440</v>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>

--- a/Results/documentation of the RAs (in corpus for all subject).xlsx
+++ b/Results/documentation of the RAs (in corpus for all subject).xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7411,6 +7411,261 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>RA82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Numerical analysis of flame stabilization for a steady premixed jet in vitiated coflow</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>power engineering and engineering thermophysics</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>aerospace propulsion theory and engineering</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>航空宇航推进理论与工程</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>44040</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Combustion and Flame</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Stephen W. Grib</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>采用数值模拟的方法，研究了在层流稳定预混射流在自燃和火焰传播两种情况下的稳定性行为，可以更好地了解自燃稳定火焰的特性，得到稳定燃烧的规律曲线与控制方法。</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>李昱泽</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RA83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>The structure of turbulent stratified and premixed methane/air flames I: Non-swirling flows</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>power engineering and engineering thermophysics</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>aerospace propulsion theory and engineering</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>航空宇航推进理论与工程</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>41090</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Combustion and Flame</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Mark S. Sweeney</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>文章中因湍流而引起的火焰增厚主要受应变增加的影响这一发现不仅适用于预混火焰和分层火焰，同时还可以运用到在现有的和新兴的湍流火焰模型中作为一个实验性质的算例，非常具有挑战性。</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>李昱泽</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RA84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Large eddy simulations of the Darmstadt turbulent stratified flame series</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>power engineering and engineering thermophysics</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>aerospace propulsion theory and engineering</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>航空宇航推进理论与工程</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>41148</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Proceedings of the Combustion Institute</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>F. Cavallo Marincola</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>对达姆施塔特紊流分层火焰(TSF)燃烧器进行了大涡模拟，研究发现，采用的建模方法可以很好地预测TSF燃烧器的情况，同时存在前后支撑的分层模式，前者的可能性更大。</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>李昱泽</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results/documentation of the RAs (in corpus for all subject).xlsx
+++ b/Results/documentation of the RAs (in corpus for all subject).xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,8 +556,10 @@
           <t>机械工程</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>2019</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -641,8 +643,10 @@
           <t>机械工程</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>2020</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -726,8 +730,10 @@
           <t>机械工程</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>2019</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1333,8 +1339,10 @@
           <t>机械设计及理论</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>39934</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>39934</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1418,8 +1426,10 @@
           <t>机械制造及其自动化</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>43290</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>43290</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1503,8 +1513,10 @@
           <t>机械设计及理论</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>44040</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>44040</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -2572,8 +2584,8 @@
           <t>叶轮机械</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>2016</v>
+      <c r="H26" s="2" t="n">
+        <v>42370</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2658,8 +2670,8 @@
           <t>叶轮机械</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>2017</v>
+      <c r="H27" s="2" t="n">
+        <v>42736</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2743,8 +2755,8 @@
           <t>叶轮机械</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>2014</v>
+      <c r="H28" s="2" t="n">
+        <v>41640</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2828,8 +2840,8 @@
           <t>热能工程</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>2007</v>
+      <c r="H29" s="2" t="n">
+        <v>39083</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2913,8 +2925,8 @@
           <t>热能工程</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>2019</v>
+      <c r="H30" s="2" t="n">
+        <v>43466</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2998,8 +3010,8 @@
           <t>热能工程</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>2017</v>
+      <c r="H31" s="2" t="n">
+        <v>42736</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -3083,8 +3095,8 @@
           <t>工程热物理</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>2019</v>
+      <c r="H32" s="2" t="n">
+        <v>43466</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -3168,8 +3180,8 @@
           <t>工程热物理</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>2019</v>
+      <c r="H33" s="2" t="n">
+        <v>43466</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3253,8 +3265,8 @@
           <t>工程热物理</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>2020</v>
+      <c r="H34" s="2" t="n">
+        <v>43831</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3565,42 +3577,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>The high-throughput highway to computational materials design</t>
+          <t>Electrochemomechanics of lithium dendrite growth</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>080401</t>
+          <t>081700</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Materials Science and Engineering</t>
+          <t>Chemical Engineering and Technology</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>材料科学与工程</t>
+          <t>化学工程与技术</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Materials Science</t>
+          <t>Chemical Engineering</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>材料科学</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>March, 2013</t>
-        </is>
+          <t>化学工程</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2019</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>nature materials</t>
+          <t>Energy &amp; Environmental Science</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3615,22 +3625,23 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Stefano Curtarolo</t>
+          <t>Aniruddha Jana</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>America</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Open the research road of High-through calculation methds in materials design</t>
+          <t>Electrochemomechanics of lithium dendrite
+growth is revealed</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>饶勇超</t>
+          <t>陈顺</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3652,42 +3663,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Machine learning in materials informatics recent application and prospects</t>
+          <t>Lithium dendrite growth mechanisms in liquid electrolytes</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>080401</t>
+          <t>081700</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Materials Science and Engineering</t>
+          <t>Chemical Engineering and Technology</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>材料科学与工程</t>
+          <t>化学工程与技术</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Materials Science</t>
+          <t>Chemical Engineering</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>材料科学</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Dec., 2017</t>
-        </is>
+          <t>化学工程</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2017</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Computational Materials</t>
+          <t>Nano Energy</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3702,22 +3711,22 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Rampi Ramprasad</t>
+          <t>Aniruddha Jana</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>America</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Conclude the progress and application of machine learning method in Materials Informatics</t>
+          <t>Lithium dendrite growth mechanisms in liquid electrolytes is described</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>饶勇超</t>
+          <t>陈顺</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3739,42 +3748,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Machine Learning-Assisted Discovery of Solid Li-Ion Conducting__Materials</t>
+          <t>Operando Pressure Measurements Reveal Solid Electrolyte Interphase Growth to Rank Li-Ion Cell Performance</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>080401</t>
+          <t>081700</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Materials Science and Engineering</t>
+          <t>Chemical Engineering and Technology</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>材料科学与工程</t>
+          <t>化学工程与技术</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Materials Science</t>
+          <t>Chemical Engineering</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>材料科学</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Nov., 2018</t>
-        </is>
+          <t>化学工程</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2019</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Chemistry of Materials</t>
+          <t>Joule</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3789,22 +3796,22 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Austin D. Sendek</t>
+          <t>A.J. Louli</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>America</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Applying the machine learning method in searching high-performance Solid Li-ion battery</t>
+          <t>Solid electrolyte interphase growth to rank liIon cell performance is revealed</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>饶勇超</t>
+          <t>陈顺</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3826,40 +3833,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Library-Based?LAMMPS?Implementation of High-Dimensional Neural Network Potentials</t>
+          <t>An investigation on the anti-loosening characteristics of threaded fasteners under vibratory conditions</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>070300</t>
+          <t>080200</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t xml:space="preserve">Mechanical Engineering </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>化学</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>CHEMISTRY, PHYSICAL</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>物理化学</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>43489</v>
+          <t>机械工程</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>2010</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Journal of Chemical Theory and Computation</t>
+          <t>Mechanism and Machine Theory</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3874,22 +3873,18 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Andreas Singraber</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+          <t>Anirban Bhattacharya</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>This paper developed an implementation of the neural network potential within the molecular dynamics package LAMMPS.</t>
+          <t>The effects of several typical bolt loosing methods were compared through experiments in this paper.</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>黄翔</t>
+          <t>林清源</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3911,40 +3906,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Realistic Atomistic Structure of Amorphous Silicon from Machine-Learning-Driven Molecular Dynamics</t>
+          <t>Effect of pitch difference between the bolt-nut connections upon the anti-loosening performance and fatigue life</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>070300</t>
+          <t>080200</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t xml:space="preserve">Mechanical Engineering </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>化学</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>CHEMISTRY, PHYSICAL</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>物理化学</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>43232</v>
+          <t>机械工程</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>2016</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Journal of Physical Chemistry Letters</t>
+          <t>Materials and Design</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3959,22 +3946,18 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Volker L. Deringer</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Nao-Aki Noda</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>this paper demonstrated the broader impact of machine-learning potentials for elucidating structures and properties of technologically important amorphous material</t>
+          <t>The most desirable pitch difference required for improving both anti-loosening and fatigue life is proposed in this paper.</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>黄翔</t>
+          <t>林清源</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3996,40 +3979,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Designing exceptional gas-separation polymer membranes using machine learning</t>
+          <t>Investigation the effect of tightening torque on the fatigue strength of double lap simple bolted and hybrid (bolted–bonded) joints using volumetric method</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>070300</t>
+          <t>080200</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MATERIAL SCIENCE</t>
+          <t xml:space="preserve">Mechanical Engineering </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>化学</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>ORGANIC POLYMER MATERIAL</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>有机高分子材料</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>43966</v>
+          <t>机械工程</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>2014</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Science Advances</t>
+          <t>Materials and Design</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4044,22 +4019,18 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>J. Wesley Barnett</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
+          <t>F. Esmaeili</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>This paper developed a machine learining technique, which evidently represents an innovative means of exploring the vast phase space available for polymer membrane design.</t>
+          <t>The accuracy of different bolt life prediction methods was studied in this paper.</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>黄翔</t>
+          <t>林清源</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4081,40 +4052,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Air-Blast Cross-Flow Atomization of Cold Fluids</t>
+          <t xml:space="preserve">Microbial community and geochemical analyses of trans-trench sediments for understanding the roles of hadal environments </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>080700</t>
+          <t>082400</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Power Engineering and Thermophysics</t>
+          <t>Marine science</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>动力工程及工程热物理</t>
+          <t>海洋科学</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Power Machinery and Engineering</t>
+          <t>marine biology</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>动力机械及工程</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>43487</v>
+          <t>海洋生物学</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2020</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Journal of Sustainable Metallurgy</t>
+          <t>The ISME Journal</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -4129,27 +4100,27 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Alexander Vadillo</t>
+          <t xml:space="preserve"> S Hiraoka </t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>The effect of certain process parameters on the characteristics of liquid droplets produced by air-blast atomization has been investigated.</t>
+          <t>trans-trench analysis highlights intra- and inter-trench distributions of microbial assemblages and geochemistry in surface seafloor sediments, providing novel insights into ultradeep-sea microbial ecology, one of the last frontiers on our planet.</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>李志阳</t>
+          <t>隋维康</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>020</t>
+          <t>440</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -4166,40 +4137,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Combined effervescent and airblast atomization of a liquid jet</t>
+          <t>Macrofaunal control of microbial community structure in continental margin sediments</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>080700</t>
+          <t>082400</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Power Engineering and Thermophysics</t>
+          <t>Marine science</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>动力工程及工程热物理</t>
+          <t>海洋科学</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Power Machinery and Engineering</t>
+          <t>marine biology</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>动力机械及工程</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>42410</v>
+          <t>海洋生物学</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2020</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Experimental Thermal and Fluid Science</t>
+          <t>PNAS</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4214,27 +4185,27 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>A. Kourmatzis</t>
+          <t>Longhui Deng</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>This paper shows combined effervescent and airblast atomization of a liquid jet.</t>
+          <t>Such insights are necessary to understand the inner workings of the global carbon cycle.</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>李志阳</t>
+          <t>隋维康</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>020</t>
+          <t>440</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -4251,40 +4222,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Two-phase flow simulation of high-pressure gas atomization effect of molten metal and atomizing gas properties on droplet size distribution</t>
+          <t>Carbon recycling efficiency and phosphate turnover by marine nitrifying archaea</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>080700</t>
+          <t>082400</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Power Engineering and Thermophysics</t>
+          <t>Marine science</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>动力工程及工程热物理</t>
+          <t>海洋科学</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Power Machinery and Engineering</t>
+          <t>marine biology</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>动力机械及工程</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>43704</v>
+          <t>海洋生物学</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2020</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Advanced Powder Technology</t>
+          <t>Science advance</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4299,27 +4270,27 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Kalpana Hanthanan Arachchilage</t>
+          <t>Travis B. Meador</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>This paper deals with the physics of high-pressure gas atomization in metal powder production.</t>
+          <t>Release of roughly 50 Tg DOC and 0.2 Tg DOP by thaumarchaea each year represents a small but fresh input of reduced substrates throughout the ocean.</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>李志阳</t>
+          <t>隋维康</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>020</t>
+          <t>440</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -4336,47 +4307,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Investigations on the material property changes of ultrasonic-vibration assisted aluminum alloy upsetting</t>
+          <t>Machine learning applied in production planning and control:a state‑of‑the‑art in the era of industry 4.0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>080401</t>
+          <t>080200</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Materials Science and Engineering</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>材料科学与工程</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>MATERIALS SCIENCE, MULTIDISCIPLINARY</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>材料科学：综合</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 20 July 2012</t>
-        </is>
+          <t>机械工程</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>43841</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Materials and Design</t>
+          <t>Journal of Intelligent Manufacturing</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4386,22 +4347,22 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Jung-Chung Hung</t>
+          <t>Juan Pablo Usuga Cadavid</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>France</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>A series of experiments and analyses were conducted to explore and further understand the effects of ultrasonic vibration for the mechanical properties and microstructure changes of materials.</t>
+          <t>this paper presents a state-o f-the-art of Machine Learning （ML）ML-aided  Production Planning and Control （PPC） (ML-PPC) done through a systematic literature review analyzing 93 recent research application articles</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Lishuangli</t>
+          <t>许鸿伟</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4423,2214 +4384,2163 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Imbalanced fault diagnosis of rotating machinery via multi-domain feature extraction and cost-sensitive learning</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>080200</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>机械工程</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>43813</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Journal of Intelligent Manufacturing</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Tangbin Xia</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Newly proposed PHM methodologies are systematically reviewed in this paper: as the decision basis, an operating load based forecasting algorithm is proposed for machine health prognosis</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>许鸿伟</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RA48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manufacturing paradigm-oriented PHM methodologies for cyber-physical systems
+</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>080200</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>机械工程</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>42948</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Journal of Intelligent Manufacturing</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Qifa Xu</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>How to improve diagnosis accuracy remains an open issue. To this end, we develop a novel framework through combined use of multi-domain vibration feature extraction, feature selection and cost-sensitive learning method</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>许鸿伟</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RA49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Deep learning for high-dimensional reliability analysis</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Power Engineering and Engineering Thermal physics</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Mechanical Systems and Signal Processing</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>MingyangLi</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>This  paper  introduces  a  novel  high-dimensional  data  abstraction  (HDDA)  framework  for  dimension  reduction  in  reliability analysis</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>徐兆辉</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RA50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>A new bivariate dimension reduction method for efﬁcient structural reliability analysis</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Power Engineering and Engineering Thermal physics</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Mechanical Systems and Signal Processing</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>JunXu</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>This  paper  presents  a  new  bivariate  dimension  reduction  method  (BDRM)  for  statistical moments  evaluation  and  structural  reliability  analysis  with  accuracy  and  efﬁciency</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>徐兆辉</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RA51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Dynamic reliability analysis using the extended support vector regression(X-SVR)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Power Engineering and Engineering Thermal physics</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Mechanical Systems and Signal Processing</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>JinwenFeng</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this paper, a new machine learning based metamodel, namely the extended support  vector  regression  (X-SVR),  is  proposed  for  the  reliability  analysis  of  dynamic  systems   via  utilizing  the   ﬁrst-passage    theory. </t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>徐兆辉</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RA52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Structural sensitivity of spiral vortex breakdown</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Power Engineering and Engineering Thermophysics</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>080704</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>流体机械及工程</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Journal of fluid mechanics</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Ubaid Ali Qadri</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>英国</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>螺旋状涡旋破碎的系统分析</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>任勇智</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RA53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>threedimensional coherent structures in a swirling jet undergoing vortex breakdown stability analysis and empirical mode construction</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Power Engineering and Engineering Thermophysics</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>080704</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>流体机械及工程</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2011</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Journal of fluid mechanics</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>B. T H I R I A</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>首次涡旋破碎的三维结构实验研究和稳定性分析</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>任勇智</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RA54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>stability properties of forced wakes</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Power Engineering and Engineering Thermophysics</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>080704</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>流体机械及工程</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2007</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Journal of fluid mechanics</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>K. O B E R L E I T H N E R</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>法国</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>首次圆柱绕流尾迹的线性稳定性分析</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>任勇智</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RA55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>The high-throughput highway to computational materials design</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>080401</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Materials Science and Engineering</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>材料科学与工程</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Materials Science</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>材料科学</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>nature materials</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Stefano Curtarolo</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Open the research road of High-through calculation methds in materials design</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>饶勇超</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RA56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Machine learning in materials informatics recent application and prospects</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>080401</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Materials Science and Engineering</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>材料科学与工程</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Materials Science</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>材料科学</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Computational Materials</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Rampi Ramprasad</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Conclude the progress and application of machine learning method in Materials Informatics</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>饶勇超</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RA57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Machine Learning-Assisted Discovery of Solid Li-Ion Conducting__Materials</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>080401</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Materials Science and Engineering</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>材料科学与工程</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Materials Science</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>材料科学</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>43405</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Chemistry of Materials</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Austin D. Sendek</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Applying the machine learning method in searching high-performance Solid Li-ion battery</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>饶勇超</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RA58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Library-Based?LAMMPS?Implementation of High-Dimensional Neural Network Potentials</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>070300</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>化学</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>CHEMISTRY, PHYSICAL</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>物理化学</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>43489</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Journal of Chemical Theory and Computation</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Andreas Singraber</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>This paper developed an implementation of the neural network potential within the molecular dynamics package LAMMPS.</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>黄翔</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RA59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Realistic Atomistic Structure of Amorphous Silicon from Machine-Learning-Driven Molecular Dynamics</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>070300</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>化学</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>CHEMISTRY, PHYSICAL</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>物理化学</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>43232</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Journal of Physical Chemistry Letters</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Volker L. Deringer</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>this paper demonstrated the broader impact of machine-learning potentials for elucidating structures and properties of technologically important amorphous material</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>黄翔</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RA60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Designing exceptional gas-separation polymer membranes using machine learning</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>070300</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>MATERIAL SCIENCE</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>化学</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ORGANIC POLYMER MATERIAL</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>有机高分子材料</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>43966</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Science Advances</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>J. Wesley Barnett</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>This paper developed a machine learining technique, which evidently represents an innovative means of exploring the vast phase space available for polymer membrane design.</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>黄翔</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RA61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Air-Blast Cross-Flow Atomization of Cold Fluids</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Power Engineering and Thermophysics</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Power Machinery and Engineering</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>动力机械及工程</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>43487</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Journal of Sustainable Metallurgy</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Alexander Vadillo</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>The effect of certain process parameters on the characteristics of liquid droplets produced by air-blast atomization has been investigated.</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>李志阳</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RA62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Combined effervescent and airblast atomization of a liquid jet</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Power Engineering and Thermophysics</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Power Machinery and Engineering</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>动力机械及工程</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>42410</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Experimental Thermal and Fluid Science</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>A. Kourmatzis</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>This paper shows combined effervescent and airblast atomization of a liquid jet.</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>李志阳</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RA63</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Two-phase flow simulation of high-pressure gas atomization effect of molten metal and atomizing gas properties on droplet size distribution</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Power Engineering and Thermophysics</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Power Machinery and Engineering</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>动力机械及工程</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Advanced Powder Technology</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Kalpana Hanthanan Arachchilage</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>This paper deals with the physics of high-pressure gas atomization in metal powder production.</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>李志阳</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RA64</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Investigations on the material property changes of ultrasonic-vibration assisted aluminum alloy upsetting</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>080401</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Materials Science and Engineering</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>材料科学与工程</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>MATERIALS SCIENCE, MULTIDISCIPLINARY</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>材料科学：综合</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>41110</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Materials and Design</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Jung-Chung Hung</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>A series of experiments and analyses were conducted to explore and further understand the effects of ultrasonic vibration for the mechanical properties and microstructure changes of materials.</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Lishuangli</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RA65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>A model to characterize acoustic softening 
 during ultrasonic consolidation</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>080401</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>Materials Science and Engineering</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>材料科学与工程</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>MATERIALS SCIENCE, MULTIDISCIPLINARY</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>材料科学：综合</t>
         </is>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H66" s="2" t="n">
         <v>41414</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>Journal of Materials Processing Technology</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Gregory S. Kelly</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>The model and experiments described in this work serve to connect the theoretical literature on acoustic softening with ultrasonic consolidation in a practical method that allows acoustic softening to be quantified during the process.</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>Lishuangli</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>RA48</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RA66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>A comparative study between elasto-plastic self-consistent crystal plasticity and anisotropic yield function with distortional hardening formulations for sheet metal forming</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>080401</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Materials Science and Engineering</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>材料科学与工程</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>MATERIALS SCIENCE, MULTIDISCIPLINARY</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>材料科学：综合</t>
         </is>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H67" s="2" t="n">
         <v>43966</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>Materials and Design</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Zhangxi Feng</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N67" t="inlineStr">
         <is>
           <t>In the coupled formulation, every finite element integration point embeds the implicit EPSC constitutive law that accounts for the directionality of deformation mechanisms and microstructural evolution.</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>Lishuangli</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>RA49</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RA67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Experimental/Numerical Study of Ducted-Fan Noise: Effect of Duct Inlet Shape</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>080700</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Power engineering and engineering thermophysics</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>动力工程及工程热物理</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>Fluid machinery and engineering</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>流体机械及工程</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>March 2018</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
+      <c r="H68" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>AIAA Journal</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Michael Shur</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>指出了进气畸变对于管道风扇噪声的巨大影响</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>孙宗翰</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>RA50</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RA68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Prediction of tonal ducted fan noise</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>080700</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Power engineering and engineering thermophysics</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>动力工程及工程热物理</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Fluid machinery and engineering</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>流体机械及工程</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>March 2016</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
+      <c r="H69" s="2" t="n">
+        <v>42430</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>Journal of Sound and Vibration</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>J. de Laborderie</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>提出并推导了一种风扇/压气机动静干涉单音噪声预测分析模型并指导实际叶片设计</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>孙宗翰</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>RA51</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RA69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Large Eddy Simulation of a scale-model turbofan for fan noise source diagnostic</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>080700</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Power engineering and engineering thermophysics</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>动力工程及工程热物理</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Fluid machinery and engineering</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>流体机械及工程</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>January 2019</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
+      <c r="H70" s="2" t="n">
+        <v>43466</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>Journal of Sound and Vibration</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Carlos Pérez Arroyo</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="N70" t="inlineStr">
         <is>
           <t>首次成功完成NASA源诊断试验涡扇发动机紊流壁模型统计收敛大涡模拟(LES)并与试验结果吻合良好</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>孙宗翰</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>RA52</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RA70</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>River piracy and drainage basin reorganization led by climate-driven glacier retreat</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>070700</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Marine Science</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>海洋科学</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>Marine remote sensing</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>海洋遥感</t>
         </is>
       </c>
-      <c r="H53" t="n">
-        <v>2017</v>
-      </c>
-      <c r="I53" t="inlineStr">
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>nature geoscience</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>Daniel H. Shugar</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="N71" t="inlineStr">
         <is>
           <t>Detct the river privacy around the area of Kaskawulsh Glacier</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>王正祎</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>440</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>RA53</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RA71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>Detecting changes in high-resolution satellite coastal imagery using an image object detection approach</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>070700</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Marine Science</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>海洋科学</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Marine remote sensing</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>海洋遥感</t>
         </is>
       </c>
-      <c r="H54" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I54" t="inlineStr">
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>International Journal of Remote Sensing</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>Jianyu Chen</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N72" t="inlineStr">
         <is>
           <t>This article presents a spatial contrast-enhanced image object-based change detection approach (SICA) to identify changed areas using shape differences between bi-temporal high-resolution satellite images.</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>王正祎</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>440</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>RA54</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RA72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>A new approach to estimate the aerosol scattering ratios for the atmospheric
 correction of satellite remote sensing data in coastal regions</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>070700</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Marine Science</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>海洋科学</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Marine remote sensing</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>海洋遥感</t>
         </is>
       </c>
-      <c r="H55" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I55" t="inlineStr">
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>Remote Sensing of Environment</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>Zhihua Mao</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="N73" t="inlineStr">
         <is>
           <t>the ENLF model provides a potential approach for a universal algorithm of the atmospheric correction of satellite remote sensing data.</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>王正祎</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>440</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>RA55</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Geomorphometric Characterization of Pockmarks by Using a GIS-Based Semi-Automated Toolbox</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>070700</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Ocean science</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>海洋科学</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Marine geology</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>海洋地质</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>43217</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Nature Geosciences</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Joana Gafeira</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>The author developed a toolbox for identifying pockmarks and made an unprecedented statistical analysis of pockmarks geomorphometric characterization</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>刘志豪Liu Zhihao</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>RA56</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Evidence of fluid seepage in Grønfjorden, Spitsbergen: Implications from an integrated acoustic study of seafloor morphology, marine sediments and tectonics</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>070700</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Ocean science</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>海洋科学</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Marine geology</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>海洋地质</t>
-        </is>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>42572</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Marine Geology</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Srikumar Roy</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>This study integrates high-resolution surface and sub-surface geophysical data to investigate possible fluid (gas and/or liquids) migration pathways to the seafloor in Grønfjorden.</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>刘志豪Liu Zhihao</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>RA57</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Shallow stratigraphic control on pockmark distribution in north temperate estuaries</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>070700</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Ocean science</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>海洋科学</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Marine geology</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>海洋地质</t>
-        </is>
-      </c>
-      <c r="H58" s="2" t="n">
-        <v>41179</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Marine Geology</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Laura L. Brothers</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>The author thinks that pockmark size and distribution relate to Holocene sediment thickness,basin morphology and glacial deposits.</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>刘志豪Liu Zhihao</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>RA58</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Structural Control, Evolution, and Accumulation Rates of Massive Sulfides in the TAG Hydrothermal Field</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>070700</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Marine Science</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>海洋科学</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Marine Geology</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>海洋地质</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>2020</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Geochemistry, Geophysics, Geosystems</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Sebastian Graber</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>The inactive and weakly active mounds contain almost 10 times the amount of material as the active high‐temperature mound, providing an important indication of the global resource potential for inactive seafloor massive sulfide deposits</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>蔡翌旸</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>RA59</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Geological fate of seaﬂoor massive sulphides at the TAG hydrothermal field (Mid-Atlantic Ridge)</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>070700</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Marine Science</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>海洋科学</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Marine Geology</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>海洋地质</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Ore Geology Reviews</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Bramley J. Murton</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>These results that have allowed us to construct a new generic model for extinct seafloor massive sulphide deposits indicate the presence of up to fve times more massive sulphide at and below the seaﬂoor than was previously thought.</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>蔡翌旸</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>RA60</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Defning active, inactive, and extinct seaﬂoor massive sulfde deposits</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>070700</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Marine Science</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>海洋科学</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Marine Geology</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>海洋地质</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>2020</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Marine Policy</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>J.W. Jamieson</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Finally, we propose criteria and techniques for determining activity and reasonably bounding the extent of a vent feld for classifcation purposes</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>蔡翌旸</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>RA61</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Dynamic Stall in Pitching Airfoils: Aerodynamic Dampingand Compressibility Effects</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>070700</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Marine Science</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>海洋科学</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Marine Technology</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>海洋技术</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>201409</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Annual Review of Fluid Mechanics</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Thomas C. Corke</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Summarized the work of the predecessor and proposed new research directions.</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>运洪禄</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>RA62</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Leading-Edge Vortices:Mechanics and Modeling</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>070700</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Marine Science</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>海洋科学</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Marine Technology</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>海洋技术</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>201808</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Annual Review of Fluid Mechanics</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Jeff D. Eldredge</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>The current research status and hot issues in this direction are coordinated.</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>运洪禄</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>RA63</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>The in uence of edge undulation on vortex formation for low-aspect-ratio propulsors</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>070700</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Marine Science</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>海洋科学</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Marine Technology</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>海洋技术</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>201910</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Journal of Fluid Mechanics</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Frieder Kaiser</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Further deepen the analysis of this research direction.</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>运洪禄</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>RA64</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Model-Based Feedback Control of Autonomous Underwater Gliders</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>070700</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Marine Science</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>海洋科学</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Marine Technology</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>海洋技术</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="n">
-        <v>37165</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>IEEE Journal of Oceanic Engineering</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Naomi Ehrich Leonard</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>The author established the dynamic model of the underwater glider through summary.</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>张旭Zhang Xu</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>RA65</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Underwater glider dynamics and control</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>070700</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Marine Science</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>海洋科学</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Marine Technology</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>海洋技术</t>
-        </is>
-      </c>
-      <c r="H66" s="2" t="n">
-        <v>36892</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>12th International Symposium on Unmanned Untethered Submersible Technology, 2001</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>SSCI</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Joshua G. Graver</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>It has very important reference significance for the control modeling of underwater gliders</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>张旭Zhang Xu</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>RA66</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Underwater Gliders Control Strategies: A Review</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>070700</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Marine Science</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>海洋科学</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Marine Technology</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>海洋技术</t>
-        </is>
-      </c>
-      <c r="H67" s="2" t="n">
-        <v>42257</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>2015 10th Asian Control Conference (ASCC)</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>SSCI</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Barkat Ullah</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Summary of Research Status of Underwater Glider</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>张旭Zhang Xu</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>RA67</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Effects  of wall  temperature on slagging and  ash  deposition of Zhundong coal  during circulating fluidized bed  gasification</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>080700</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Power engineering and Engineering Thermophysics</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>thermal engineering</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>热能工程</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2019.06.15</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Applied Thermal Engineering</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Xiaobin Qi</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>中国</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>揭示了准东煤在循环流化床气化过程中的结渣和沾污特性</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>马瑞</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>RA68</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Hydrogen production by Zhundong coal gasification in supercritical water</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>080700</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Power engineering and Engineering Thermophysics</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>thermal engineering</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>热能工程</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2015.10.20</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>International Journal of Hydrogen Energy</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Hui Jin</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>中国</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>通过超临界水气化技术实现了准东煤的清洁高效利用</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>马瑞</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>RA69</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>The ash deposition mechanism in boilers burning Zhundong coal with high contents of sodium and calcium A study from ash evaporating to condensing</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>080700</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Power engineering and Engineering Thermophysics</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>thermal engineering</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>热能工程</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2015.01.28</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Applied Thermal Engineering</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Xuebin Wang</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>中国</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>揭示了准东煤燃烧过程中钠的迁移过程</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>马瑞</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>RA70</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Numerical and Experimental Assessment of a Solenoid Common-Rail  Injector Operation with Advanced Injection Strategies</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>080700</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Power Engineering and Thermophysics</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Power machinery and Engineering</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>动力机械与工程</t>
-        </is>
-      </c>
-      <c r="H71" s="2" t="n">
-        <v>42465</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>SAE INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Piano,Andrea</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>意大利</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>The model was validated using experimental data obtained by a Zeuch’s method injection analyzer</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>王先勇</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>RA71</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Mathematical modelling of a diesel common-rail system</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>080700</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Power Engineering and Thermophysics</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Power machinery and Engineering</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>动力机械与工程</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="n">
-        <v>41901</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Mathematical and Computer Modelling of Dynamical Systems</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Katharina Prinz</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>奥地利</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>an average model is derived to reduce the model complexity and to allow for a fast calculation of the mass flow into the rail for different crank shaft revolution speeds and openings of the fuel metering unit</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>王先勇</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>RA72</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Optical device for measuring the injectors opening in common rail systems</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>080700</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Power Engineering and Thermophysics</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Power machinery and Engineering</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>动力机械与工程</t>
-        </is>
-      </c>
-      <c r="H73" s="2" t="n">
-        <v>42879</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>International Journal of Automotive Technology</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Riccardo Amirante</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>意大利</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>a new device for measuring the injector opening is proposed: it is an optical transducer characterized both by simple and very cheap construction and by a reliable physical principle for measuring the control piston lift</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>王先勇</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>020</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -6647,40 +6557,42 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Co-designing electronics with microfluidics for more sustainable cooling</t>
+          <t>Geomorphometric Characterization of Pockmarks by Using a GIS-Based Semi-Automated Toolbox</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>080700</t>
+          <t>070700</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Power Engineering and Engineering Thermophysics</t>
+          <t>Ocean science</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>动力工程及工程热物理</t>
+          <t>海洋科学</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>engineering thermophysic</t>
+          <t>Marine geology</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>工程热物理</t>
-        </is>
-      </c>
-      <c r="H74" s="2" t="n">
-        <v>44022</v>
+          <t>海洋地质</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2018-04-27 00:00:00</t>
+        </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>Nature Geosciences</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -6695,27 +6607,27 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Remco van Erp</t>
+          <t>Joana Gafeira</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>瑞士</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>利用微流体冷却与电子元器件结构设计的结合，大大降低冷却的能耗</t>
+          <t>The author developed a toolbox for identifying pockmarks and made an unprecedented statistical analysis of pockmarks geomorphometric characterization</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>汪大海</t>
+          <t>刘志豪Liu Zhihao</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>020</t>
+          <t>440</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -6732,40 +6644,42 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Heat pipe dryout and temperature hysteresis in response to transient heat pulses exceeding the capillary limit</t>
+          <t>Evidence of fluid seepage in Grønfjorden, Spitsbergen: Implications from an integrated acoustic study of seafloor morphology, marine sediments and tectonics</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>080700</t>
+          <t>070700</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Power Engineering and Engineering Thermophysics</t>
+          <t>Ocean science</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>动力工程及工程热物理</t>
+          <t>海洋科学</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>engineering thermophysic</t>
+          <t>Marine geology</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>工程热物理</t>
-        </is>
-      </c>
-      <c r="H75" s="2" t="n">
-        <v>43796</v>
+          <t>海洋地质</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2016-07-21 00:00:00</t>
+        </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>International Journal of Heat and Mass Transfer</t>
+          <t>Marine Geology</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -6780,27 +6694,27 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Kalind Baraya</t>
+          <t>Srikumar Roy</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>研究瞬态高热流密度脉冲对热管干涸和温度滞后的影响，为热管在高功率的电子散热方面提供理论指导</t>
+          <t>This study integrates high-resolution surface and sub-surface geophysical data to investigate possible fluid (gas and/or liquids) migration pathways to the seafloor in Grønfjorden.</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>汪大海</t>
+          <t>刘志豪Liu Zhihao</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>020</t>
+          <t>440</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -6817,850 +6731,2394 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>Shallow stratigraphic control on pockmark distribution in north temperate estuaries</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>070700</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Ocean science</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>海洋科学</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Marine geology</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>海洋地质</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2012-09-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Marine Geology</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Laura L. Brothers</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>The author thinks that pockmark size and distribution relate to Holocene sediment thickness,basin morphology and glacial deposits.</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>刘志豪Liu Zhihao</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RA76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Structural Control, Evolution, and Accumulation Rates of Massive Sulfides in the TAG Hydrothermal Field</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>070700</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Marine Science</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>海洋科学</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Marine Geology</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>海洋地质</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Geochemistry, Geophysics, Geosystems</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Sebastian Graber</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>The inactive and weakly active mounds contain almost 10 times the amount of material as the active high‐temperature mound, providing an important indication of the global resource potential for inactive seafloor massive sulfide deposits</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>蔡翌旸</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RA77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Geological fate of seaﬂoor massive sulphides at the TAG hydrothermal field (Mid-Atlantic Ridge)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>070700</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Marine Science</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>海洋科学</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Marine Geology</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>海洋地质</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Ore Geology Reviews</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Bramley J. Murton</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>These results that have allowed us to construct a new generic model for extinct seafloor massive sulphide deposits indicate the presence of up to fve times more massive sulphide at and below the seaﬂoor than was previously thought.</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>蔡翌旸</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RA78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Defning active, inactive, and extinct seaﬂoor massive sulfde deposits</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>070700</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Marine Science</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>海洋科学</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Marine Geology</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>海洋地质</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Marine Policy</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>J.W. Jamieson</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Finally, we propose criteria and techniques for determining activity and reasonably bounding the extent of a vent feld for classifcation purposes</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>蔡翌旸</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RA79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Dynamic Stall in Pitching Airfoils: Aerodynamic Dampingand Compressibility Effects</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>070700</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Marine Science</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>海洋科学</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Marine Technology</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>海洋技术</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>201409</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Annual Review of Fluid Mechanics</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Thomas C. Corke</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Summarized the work of the predecessor and proposed new research directions.</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>运洪禄</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RA80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Leading-Edge Vortices:Mechanics and Modeling</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>070700</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Marine Science</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>海洋科学</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Marine Technology</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>海洋技术</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>201808</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Annual Review of Fluid Mechanics</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Jeff D. Eldredge</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>The current research status and hot issues in this direction are coordinated.</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>运洪禄</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>RA81</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>The in uence of edge undulation on vortex formation for low-aspect-ratio propulsors</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>070700</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Marine Science</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>海洋科学</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Marine Technology</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>海洋技术</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Journal of Fluid Mechanics</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Frieder Kaiser</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Further deepen the analysis of this research direction.</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>运洪禄</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>RA82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Model-Based Feedback Control of Autonomous Underwater Gliders</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>070700</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Marine Science</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>海洋科学</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Marine Technology</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>海洋技术</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2001-10-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>IEEE Journal of Oceanic Engineering</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Naomi Ehrich Leonard</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>The author established the dynamic model of the underwater glider through summary.</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>张旭Zhang Xu</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RA83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Underwater glider dynamics and control</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>070700</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Marine Science</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>海洋科学</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Marine Technology</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>海洋技术</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2001-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>12th International Symposium on Unmanned Untethered Submersible Technology, 2001</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>SSCI</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Joshua G. Graver</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>It has very important reference significance for the control modeling of underwater gliders</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>张旭Zhang Xu</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RA84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Underwater Gliders Control Strategies: A Review</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>070700</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Marine Science</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>海洋科学</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Marine Technology</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>海洋技术</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2015-09-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2015 10th Asian Control Conference (ASCC)</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>SSCI</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Barkat Ullah</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Summary of Research Status of Underwater Glider</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>张旭Zhang Xu</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RA85</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Effects  of wall  temperature on slagging and  ash  deposition of Zhundong coal  during circulating fluidized bed  gasification</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Power engineering and Engineering Thermophysics</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>thermal engineering</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>热能工程</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>43631</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Applied Thermal Engineering</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Xiaobin Qi</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>揭示了准东煤在循环流化床气化过程中的结渣和沾污特性</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>马瑞</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RA86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Hydrogen production by Zhundong coal gasification in supercritical water</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Power engineering and Engineering Thermophysics</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>thermal engineering</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>热能工程</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>42297</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>International Journal of Hydrogen Energy</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Hui Jin</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>通过超临界水气化技术实现了准东煤的清洁高效利用</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>马瑞</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RA87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>The ash deposition mechanism in boilers burning Zhundong coal with high contents of sodium and calcium A study from ash evaporating to condensing</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Power engineering and Engineering Thermophysics</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>thermal engineering</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>热能工程</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>42032</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Applied Thermal Engineering</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Xuebin Wang</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>揭示了准东煤燃烧过程中钠的迁移过程</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>马瑞</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RA88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Numerical and Experimental Assessment of a Solenoid Common-Rail  Injector Operation with Advanced Injection Strategies</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Power Engineering and Thermophysics</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Power machinery and Engineering</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>动力机械与工程</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>42465</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>SAE INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Piano,Andrea</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>意大利</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>The model was validated using experimental data obtained by a Zeuch’s method injection analyzer</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>王先勇</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RA89</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Mathematical modelling of a diesel common-rail system</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Power Engineering and Thermophysics</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Power machinery and Engineering</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>动力机械与工程</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>41901</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Mathematical and Computer Modelling of Dynamical Systems</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Katharina Prinz</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>奥地利</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>an average model is derived to reduce the model complexity and to allow for a fast calculation of the mass flow into the rail for different crank shaft revolution speeds and openings of the fuel metering unit</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>王先勇</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RA90</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Optical device for measuring the injectors opening in common rail systems</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Power Engineering and Thermophysics</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Power machinery and Engineering</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>动力机械与工程</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>42879</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>International Journal of Automotive Technology</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Riccardo Amirante</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>意大利</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>a new device for measuring the injector opening is proposed: it is an optical transducer characterized both by simple and very cheap construction and by a reliable physical principle for measuring the control piston lift</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>王先勇</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RA91</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Co-designing electronics with microfluidics for more sustainable cooling</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Power Engineering and Engineering Thermophysics</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>engineering thermophysic</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>工程热物理</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>44022</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Nature</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Remco van Erp</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>瑞士</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>利用微流体冷却与电子元器件结构设计的结合，大大降低冷却的能耗</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>汪大海</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RA92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Heat pipe dryout and temperature hysteresis in response to transient heat pulses exceeding the capillary limit</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Power Engineering and Engineering Thermophysics</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>engineering thermophysic</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>工程热物理</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>International Journal of Heat and Mass Transfer</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Kalind Baraya</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>研究瞬态高热流密度脉冲对热管干涸和温度滞后的影响，为热管在高功率的电子散热方面提供理论指导</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>汪大海</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RA93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>A numerical model for transport in flat heat pipes considering wick
 microstructure effects</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>080700</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>Power Engineering and Engineering Thermophysics</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>动力工程及工程热物理</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>engineering thermophysic</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>工程热物理</t>
         </is>
       </c>
-      <c r="H76" s="2" t="n">
+      <c r="H94" s="2" t="n">
         <v>40427</v>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>International Journal of Heat and Mass Transfer</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
           <t>Ram Ranjan</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>美国</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="N94" t="inlineStr">
         <is>
           <t>考虑热管芯体微观结构对平板热管输运数值模型的影响，使得热管的数值计算更加贴近工程实际</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>汪大海</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="P94" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>RA76</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RA94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>Control chart monitoring of wind turbine generators using the statistical inertia of a wind farm average</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>080200</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>Mechanical engineering</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>机械工程</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>Industrial engineering</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>工业工程</t>
         </is>
       </c>
-      <c r="H77" t="n">
-        <v>2018.2</v>
-      </c>
-      <c r="I77" t="inlineStr">
+      <c r="H95" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>Rewable Energy</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>P. Cambron</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="M95" t="inlineStr">
         <is>
           <t>加拿大</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="N95" t="inlineStr">
         <is>
           <t>This paper proposed a simple method for monitoring wind turbine in big farm</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>吴振宇</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
+      <c r="P95" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>RA77</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RA95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>A combined mono- and multi-turbine approach for fault indicator synthesis and wind turbine monitoring using SCADA data</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>080200</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>Mechanical engineering</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>机械工程</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>Industrial engineering</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>工业工程</t>
         </is>
       </c>
-      <c r="H78" t="n">
-        <v>2019.4</v>
-      </c>
-      <c r="I78" t="inlineStr">
+      <c r="H96" s="2" t="n">
+        <v>43556</v>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>ISA Transactions</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Alexis Lebranchu</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="M96" t="inlineStr">
         <is>
           <t>法国</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="N96" t="inlineStr">
         <is>
           <t>This paper proposed a monitoring procedure combining mono and multi-turbine, and implement multi-variates monitoring.</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>吴振宇</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="P96" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>RA78</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RA96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>Wind turbine fault detection based on expanded linguistic terms and rules using non-singleton fuzzy logic</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>080200</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>Mechanical engineering</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>机械工程</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>Industrial engineering</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>工业工程</t>
         </is>
       </c>
-      <c r="H79" t="n">
-        <v>2020.3</v>
-      </c>
-      <c r="I79" t="inlineStr">
+      <c r="H97" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>Applied Energy</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>Fuming Qu</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>中国</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="N97" t="inlineStr">
         <is>
           <t>This paper relized the fault detection of wind turbine using non-singleton fuzzy logic.</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>吴振宇</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="P97" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>RA79</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RA97</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>Optimal Time Interval Between Periodic Inspections for a Two-Component Cold Standby Multistate System</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>080200</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>Mechanical engineering</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>机械工程</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>Industrial Engineering</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>工业工程</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2017.04.26</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
+      <c r="H98" s="2" t="n">
+        <v>42851</v>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>IEEE TRANSACTIONS ON RELIABILITY</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>Angelica Alebrant Mendes</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>巴西</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="N98" t="inlineStr">
         <is>
           <t>提出了一种多状态冗余系统的最佳检查时间间隔的设计方法</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>陈兆祥</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="P98" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>RA80</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RA98</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>Reliability optimization of series-parallel systems with K-mixed redundancy strategy</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>080200</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Mechanical engineering</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>机械工程</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>Industrial Engineering</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>工业工程</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2018.09.09</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
+      <c r="H99" s="2" t="n">
+        <v>43352</v>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>Reliability Engineering and System Safety</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>Abdossaber Peiravi</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>伊朗</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="N99" t="inlineStr">
         <is>
           <t>提出了一种名为K-mixed的新型冗余分配方法</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>陈兆祥</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr">
+      <c r="P99" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>RA81</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RA99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>The evolution of system reliability optimization</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>080200</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>Mechanical engineering</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>机械工程</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>Industrial Engineering</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>工业工程</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2018.09.08</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
+      <c r="H100" s="2" t="n">
+        <v>43351</v>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>Reliability Engineering and System Safety</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>David W. Coit</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="M100" t="inlineStr">
         <is>
           <t>美国</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="N100" t="inlineStr">
         <is>
           <t>提出了一种主动型的可靠性-冗余分配方法</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>陈兆祥</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
+      <c r="P100" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>RA82</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RA100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>Numerical analysis of flame stabilization for a steady premixed jet in vitiated coflow</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>080700</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>power engineering and engineering thermophysics</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>动力工程及工程热物理</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>aerospace propulsion theory and engineering</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>航空宇航推进理论与工程</t>
         </is>
       </c>
-      <c r="H83" s="2" t="n">
+      <c r="H101" s="2" t="n">
         <v>44040</v>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>Combustion and Flame</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>Stephen W. Grib</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="M101" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="N101" t="inlineStr">
         <is>
           <t>采用数值模拟的方法，研究了在层流稳定预混射流在自燃和火焰传播两种情况下的稳定性行为，可以更好地了解自燃稳定火焰的特性，得到稳定燃烧的规律曲线与控制方法。</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>李昱泽</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="P101" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>RA83</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RA101</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>The structure of turbulent stratified and premixed methane/air flames I: Non-swirling flows</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>080700</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>power engineering and engineering thermophysics</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>动力工程及工程热物理</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>aerospace propulsion theory and engineering</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>航空宇航推进理论与工程</t>
         </is>
       </c>
-      <c r="H84" s="2" t="n">
+      <c r="H102" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>Combustion and Flame</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>Mark S. Sweeney</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="M102" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="N102" t="inlineStr">
         <is>
           <t>文章中因湍流而引起的火焰增厚主要受应变增加的影响这一发现不仅适用于预混火焰和分层火焰，同时还可以运用到在现有的和新兴的湍流火焰模型中作为一个实验性质的算例，非常具有挑战性。</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>李昱泽</t>
         </is>
       </c>
-      <c r="P84" t="inlineStr">
+      <c r="P102" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>RA84</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RA102</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>Large eddy simulations of the Darmstadt turbulent stratified flame series</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>080700</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>power engineering and engineering thermophysics</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>动力工程及工程热物理</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>aerospace propulsion theory and engineering</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>航空宇航推进理论与工程</t>
         </is>
       </c>
-      <c r="H85" s="2" t="n">
+      <c r="H103" s="2" t="n">
         <v>41148</v>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>Proceedings of the Combustion Institute</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>SCI</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>F. Cavallo Marincola</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="N103" t="inlineStr">
         <is>
           <t>对达姆施塔特紊流分层火焰(TSF)燃烧器进行了大涡模拟，研究发现，采用的建模方法可以很好地预测TSF燃烧器的情况，同时存在前后支撑的分层模式，前者的可能性更大。</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>李昱泽</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr">
+      <c r="P103" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr">
+      <c r="Q103" t="inlineStr">
         <is>
           <t>M31</t>
         </is>
